--- a/Question.xlsx
+++ b/Question.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DoCaPlatform\DOCA_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FOR STUDY\SWP\DOCA_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E164CB2-BE4A-4F6A-B375-19694C7DA269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225D479-0C52-4A39-8D04-63C1EFC634A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F04F09C-2058-4020-8C49-33C05B858907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F04F09C-2058-4020-8C49-33C05B858907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Requirement </t>
   </si>
@@ -44,26 +39,102 @@
     <t>Bạn thường xem những trang dành cho người yêu chó mèo ở đâu ?</t>
   </si>
   <si>
-    <t xml:space="preserve">(Đã từng dùng)Trang Wed bạn đang sử dụng có thiếu tính năng nào mà bạn cần không? Mô tả một chút về nó? </t>
-  </si>
-  <si>
-    <t>Bạn muốn 1 nền tảng dánh cho người yêu chó mèo cần phải có những tính năng gì ?</t>
-  </si>
-  <si>
-    <t>Việc mua bán và trao đổi chó mèo trên trang wed này thì theo bạn có phù hợp không ?</t>
-  </si>
-  <si>
-    <t>Bạn thích tiếp cận những bài đăng có nội dung như thế nào?</t>
-  </si>
-  <si>
-    <t>Theo bạn thì bài đăng trên nền tảng giúp ?</t>
+    <r>
+      <t>1.Tìm kiếm thông tin về chó mèo trên trang web PetMD và các diễn đàn trực tuyến như Facebook và Reddit. 
+2.S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ử dụng ứng dụng di động như Petfinder để tìm chó mèo cần nhận nuôi và các ứng dụng khác để theo dõi sức khỏe của mèo.
+3.Tham gia vào các nền tảng độc quyền như "The Cat Community" và "Catster Community." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Bạn muốn forum của 1 nền tảng dành cho người yêu chó mèo cần phải có những tính năng gì ?(ví dụ đăng bài, bình luận,….)</t>
+  </si>
+  <si>
+    <t>1.chức năng đăng bài viết để chia sẻ những hiểu biết về chó mèo.
+2.khi đăng tải bài viết tôi có thể đăng tải cả hình ảnh để minh họa cho những gì tôi đang nói.
+3.chức năng bình luận để tạo cơ hội cho người đọc có thể trao đổi ý kiến và đặt câu hỏi.
+4. tính năng "thả tim" để thể hiện sự ủng hộ và tạo khích lệ cho người viết bài.
+5.chức năng tạo chủ đề hoặc tham gia vào các chủ đề thảo luận khác nhau về chó mèo, để có sự đa dạng trong nội dung.
+6.tính năng tìm kiếm để dễ dàng tìm kiếm thông tin và bài viết cụ thể về chó mèo.
+7.tính năng "số lượt tim" để biết được mức độ quan tâm của người đọc đối với bài viết của mình.
+8.chức năng chia sẻ bài viết lên các mạng xã hội khác để lan truyền thông tin rộng rãi hơn.</t>
+  </si>
+  <si>
+    <t>bạn mong muốn khả năng gì ở mục mua bán, và cung cấp dịch vụ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. tính năng tìm kiếm và lọc sản phẩm hoặc dịch vụ. Điều này sẽ giúp tôi dễ dàng tìm những món đồ hoặc dịch vụ mà tôi đang cần mà không phải duyệt 
+qua nhiều trang.
+2.một trang cá nhân riêng để quản lý tất cả các sản phẩm hoặc dịch vụ mà tôi đã đăng bán.Trang cá nhân này nên cho phép tôi chỉnh sửa thông tin, 
+thêm hình ảnh mới và theo dõi tình trạng các giao dịch.
+3.tính năng đăng sản phẩm hoặc dịch vụ một cách dễ dàng và nhanh chóng. Điều này bao gồm việc tải lên hình ảnh, viết mô tả chi tiết, xác định giá cả
+ và cung cấp thông tin liên hệ.
+4. tính năng xem chi tiết sản phẩm hoặc dịch vụ một cách rõ ràng. Tôi cần thấy hình ảnh lớn, mô tả chi tiết và thông tin liên hệ của người bán để đảm 
+bảo rằng sản phẩm hoặc dịch vụ đáp ứng nhu cầu của tôi.
+</t>
+  </si>
+  <si>
+    <t>Bạn nghĩ sao về việc quản lý nội dung trên forum?</t>
+  </si>
+  <si>
+    <t>1.Tôi đồng tình với ý kiến về tính bảo mật và chất lượng. Tôi cũng quan tâm đến việc có một quy trình xem xét nhanh chóng để đảm bảo rằng các bài
+ viết chất lượng không bị giữ lại quá lâu.
+2.Tôi muốn thấy có một quy định cụ thể về nội dung bị cấm như nội dung độc hại hoặc bất hợp pháp. Điều này giúp tôi cảm thấy an toàn hơn khi sử 
+dụng diễn đàn.
+3.Tôi muốn có tính năng báo cáo nội dung không phù hợp để cộng đồng có thể tham gia vào việc giám sát nội dung của diễn đàn.</t>
+  </si>
+  <si>
+    <t>bạn mong muốn báo cáo thống kê có thể cung cấp cho bạn những 
+thông tin gì ?</t>
+  </si>
+  <si>
+    <t>1.Tổng số lượng người dùng và hoạt động: Tôi muốn biết tổng số lượng người dùng đã đăng ký và hoạt động trên nền tảng. Điều này giúp tôi đánh giá 
+sự phát triển của cộng đồng.
+2.Số lượng bài viết và bình luận: Tôi cần biết tổng số bài viết và bình luận đã được đăng trong một khoảng thời gian cụ thể. Điều này giúp tôi đo lường 
+mức độ hoạt động của người dùng trên diễn đàn.
+3.Số lượng báo cáo và xử lý báo cáo: Tôi cần thông tin về số lượng báo cáo đã được nhận và cách mà chúng đã được xử lý. Điều này giúp tôi đảm bảo 
+rằng nội dung không phù hợp được kiểm tra và xử lý một cách hiệu quả.
+4.Thống kê về nội dung: Tôi muốn biết về các loại nội dung được đăng, bao gồm bài viết, hình ảnh, video, và các chủ đề phổ biến nhất. Điều này giúp 
+tôi hiểu rõ sự quan tâm của cộng đồng.</t>
+  </si>
+  <si>
+    <t>bạn mong muốn có những tính năng gì để phục vụ công việc kiểm 
+duyệt nội dung ?</t>
+  </si>
+  <si>
+    <t>1.Cần có giao diện và hệ thống quản lý cho nhân sự kiểm duyệt để họ dễ dàng truy cập và xem các bài viết liên quan đến hashtag mà họ chịu trách 
+nhiệm kiểm duyệt.
+2.Chấp nhận những bài viết phù hợp với nội dung hastag. Từ chối những bài viết có nội dung tiêu cực, không phù hợp với hastag.
+3.Thống kê và báo cáo hiệu suất: Cần có tính năng thống kê để nhân sự kiểm duyệt có thể theo dõi số lượng bài viết đã kiểm duyệt, bài viết được chấp 
+nhận và từ chối, và thời gian mà họ đã dành cho công việc kiểm duyệt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +145,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,53 +510,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C90342-5655-49CB-8A11-E5D8522C1964}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="122.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Question.xlsx
+++ b/Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FOR STUDY\SWP\DOCA_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225D479-0C52-4A39-8D04-63C1EFC634A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA8C0EF-4272-4E98-A475-4CA4CB5A28EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F04F09C-2058-4020-8C49-33C05B858907}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Requirement </t>
   </si>
@@ -128,6 +128,17 @@
 2.Chấp nhận những bài viết phù hợp với nội dung hastag. Từ chối những bài viết có nội dung tiêu cực, không phù hợp với hastag.
 3.Thống kê và báo cáo hiệu suất: Cần có tính năng thống kê để nhân sự kiểm duyệt có thể theo dõi số lượng bài viết đã kiểm duyệt, bài viết được chấp 
 nhận và từ chối, và thời gian mà họ đã dành cho công việc kiểm duyệt.</t>
+  </si>
+  <si>
+    <t>Bạn nghĩ việc thanh toán sẽ hoạt động như thế nào để đảm bảo an
+ toàn đối với hình thức mua bán P2P này?</t>
+  </si>
+  <si>
+    <t>1.Tôi nghĩ nên cho người bán và người mua có thể liên hệ trực tiếp với nhau. Quá trình trao đổi thông tin và thỏa thuận trực tiếp giữa họ có thể tạo ra 
+tính minh bạch và tin cậy hơn. Việc này cũng giúp họ kiểm tra sản phẩm trước khi thực hiện thanh toán.
+2.Tôi nghĩ nên thanh toán tiền mặt trực tiếp là lựa chọn an toàn nhất. Khi gặp nhau, người mua có thể kiểm tra sản phẩm và đảm bảo rằng nó đáp ứng mong đợi trước khi trả tiền cho người bán. Điều này giúp tránh được các rủi ro liên quan đến thanh toán trực tuyến.
+3.Thanh toán online có nhiều rủi ro, đặc biệt là khi không có cách thức để xác thực danh tính người mua và người bán. Tôi nghĩ nên khuyến khích giao dịch trực tiếp. Tuy nhiên, nếu thanh toán online là không thể tránh được, thì cần cung cấp các tùy chọn thanh toán an toàn và xác thực danh tính để tối ưu hóa tính an toàn trong quá trình này.
+ 4.Để đảm bảo tính an toàn, chúng ta có thể cung cấp tùy chọn thanh toán trực tuyến qua các dịch vụ thanh toán an toàn đã được kiểm chứng. Các dịch vụ này có thể bao gồm việc xác thực danh tính của người dùng và giữ tiền trong tài khoản trung gian cho đến khi giao dịch hoàn tất. Nhưng cần chú ý rằng việc này có thể đòi hỏi phí hoặc hoa hồng, do đó, nên cân nhắc về chi phí.</t>
   </si>
 </sst>
 </file>
@@ -510,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C90342-5655-49CB-8A11-E5D8522C1964}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +586,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="202.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DoCaPlatform\DOCA_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FOR STUDY\SWP\DOCA_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E164CB2-BE4A-4F6A-B375-19694C7DA269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA8C0EF-4272-4E98-A475-4CA4CB5A28EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F04F09C-2058-4020-8C49-33C05B858907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F04F09C-2058-4020-8C49-33C05B858907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Requirement </t>
   </si>
@@ -44,26 +39,113 @@
     <t>Bạn thường xem những trang dành cho người yêu chó mèo ở đâu ?</t>
   </si>
   <si>
-    <t xml:space="preserve">(Đã từng dùng)Trang Wed bạn đang sử dụng có thiếu tính năng nào mà bạn cần không? Mô tả một chút về nó? </t>
-  </si>
-  <si>
-    <t>Bạn muốn 1 nền tảng dánh cho người yêu chó mèo cần phải có những tính năng gì ?</t>
-  </si>
-  <si>
-    <t>Việc mua bán và trao đổi chó mèo trên trang wed này thì theo bạn có phù hợp không ?</t>
-  </si>
-  <si>
-    <t>Bạn thích tiếp cận những bài đăng có nội dung như thế nào?</t>
-  </si>
-  <si>
-    <t>Theo bạn thì bài đăng trên nền tảng giúp ?</t>
+    <r>
+      <t>1.Tìm kiếm thông tin về chó mèo trên trang web PetMD và các diễn đàn trực tuyến như Facebook và Reddit. 
+2.S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ử dụng ứng dụng di động như Petfinder để tìm chó mèo cần nhận nuôi và các ứng dụng khác để theo dõi sức khỏe của mèo.
+3.Tham gia vào các nền tảng độc quyền như "The Cat Community" và "Catster Community." </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Bạn muốn forum của 1 nền tảng dành cho người yêu chó mèo cần phải có những tính năng gì ?(ví dụ đăng bài, bình luận,….)</t>
+  </si>
+  <si>
+    <t>1.chức năng đăng bài viết để chia sẻ những hiểu biết về chó mèo.
+2.khi đăng tải bài viết tôi có thể đăng tải cả hình ảnh để minh họa cho những gì tôi đang nói.
+3.chức năng bình luận để tạo cơ hội cho người đọc có thể trao đổi ý kiến và đặt câu hỏi.
+4. tính năng "thả tim" để thể hiện sự ủng hộ và tạo khích lệ cho người viết bài.
+5.chức năng tạo chủ đề hoặc tham gia vào các chủ đề thảo luận khác nhau về chó mèo, để có sự đa dạng trong nội dung.
+6.tính năng tìm kiếm để dễ dàng tìm kiếm thông tin và bài viết cụ thể về chó mèo.
+7.tính năng "số lượt tim" để biết được mức độ quan tâm của người đọc đối với bài viết của mình.
+8.chức năng chia sẻ bài viết lên các mạng xã hội khác để lan truyền thông tin rộng rãi hơn.</t>
+  </si>
+  <si>
+    <t>bạn mong muốn khả năng gì ở mục mua bán, và cung cấp dịch vụ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. tính năng tìm kiếm và lọc sản phẩm hoặc dịch vụ. Điều này sẽ giúp tôi dễ dàng tìm những món đồ hoặc dịch vụ mà tôi đang cần mà không phải duyệt 
+qua nhiều trang.
+2.một trang cá nhân riêng để quản lý tất cả các sản phẩm hoặc dịch vụ mà tôi đã đăng bán.Trang cá nhân này nên cho phép tôi chỉnh sửa thông tin, 
+thêm hình ảnh mới và theo dõi tình trạng các giao dịch.
+3.tính năng đăng sản phẩm hoặc dịch vụ một cách dễ dàng và nhanh chóng. Điều này bao gồm việc tải lên hình ảnh, viết mô tả chi tiết, xác định giá cả
+ và cung cấp thông tin liên hệ.
+4. tính năng xem chi tiết sản phẩm hoặc dịch vụ một cách rõ ràng. Tôi cần thấy hình ảnh lớn, mô tả chi tiết và thông tin liên hệ của người bán để đảm 
+bảo rằng sản phẩm hoặc dịch vụ đáp ứng nhu cầu của tôi.
+</t>
+  </si>
+  <si>
+    <t>Bạn nghĩ sao về việc quản lý nội dung trên forum?</t>
+  </si>
+  <si>
+    <t>1.Tôi đồng tình với ý kiến về tính bảo mật và chất lượng. Tôi cũng quan tâm đến việc có một quy trình xem xét nhanh chóng để đảm bảo rằng các bài
+ viết chất lượng không bị giữ lại quá lâu.
+2.Tôi muốn thấy có một quy định cụ thể về nội dung bị cấm như nội dung độc hại hoặc bất hợp pháp. Điều này giúp tôi cảm thấy an toàn hơn khi sử 
+dụng diễn đàn.
+3.Tôi muốn có tính năng báo cáo nội dung không phù hợp để cộng đồng có thể tham gia vào việc giám sát nội dung của diễn đàn.</t>
+  </si>
+  <si>
+    <t>bạn mong muốn báo cáo thống kê có thể cung cấp cho bạn những 
+thông tin gì ?</t>
+  </si>
+  <si>
+    <t>1.Tổng số lượng người dùng và hoạt động: Tôi muốn biết tổng số lượng người dùng đã đăng ký và hoạt động trên nền tảng. Điều này giúp tôi đánh giá 
+sự phát triển của cộng đồng.
+2.Số lượng bài viết và bình luận: Tôi cần biết tổng số bài viết và bình luận đã được đăng trong một khoảng thời gian cụ thể. Điều này giúp tôi đo lường 
+mức độ hoạt động của người dùng trên diễn đàn.
+3.Số lượng báo cáo và xử lý báo cáo: Tôi cần thông tin về số lượng báo cáo đã được nhận và cách mà chúng đã được xử lý. Điều này giúp tôi đảm bảo 
+rằng nội dung không phù hợp được kiểm tra và xử lý một cách hiệu quả.
+4.Thống kê về nội dung: Tôi muốn biết về các loại nội dung được đăng, bao gồm bài viết, hình ảnh, video, và các chủ đề phổ biến nhất. Điều này giúp 
+tôi hiểu rõ sự quan tâm của cộng đồng.</t>
+  </si>
+  <si>
+    <t>bạn mong muốn có những tính năng gì để phục vụ công việc kiểm 
+duyệt nội dung ?</t>
+  </si>
+  <si>
+    <t>1.Cần có giao diện và hệ thống quản lý cho nhân sự kiểm duyệt để họ dễ dàng truy cập và xem các bài viết liên quan đến hashtag mà họ chịu trách 
+nhiệm kiểm duyệt.
+2.Chấp nhận những bài viết phù hợp với nội dung hastag. Từ chối những bài viết có nội dung tiêu cực, không phù hợp với hastag.
+3.Thống kê và báo cáo hiệu suất: Cần có tính năng thống kê để nhân sự kiểm duyệt có thể theo dõi số lượng bài viết đã kiểm duyệt, bài viết được chấp 
+nhận và từ chối, và thời gian mà họ đã dành cho công việc kiểm duyệt.</t>
+  </si>
+  <si>
+    <t>Bạn nghĩ việc thanh toán sẽ hoạt động như thế nào để đảm bảo an
+ toàn đối với hình thức mua bán P2P này?</t>
+  </si>
+  <si>
+    <t>1.Tôi nghĩ nên cho người bán và người mua có thể liên hệ trực tiếp với nhau. Quá trình trao đổi thông tin và thỏa thuận trực tiếp giữa họ có thể tạo ra 
+tính minh bạch và tin cậy hơn. Việc này cũng giúp họ kiểm tra sản phẩm trước khi thực hiện thanh toán.
+2.Tôi nghĩ nên thanh toán tiền mặt trực tiếp là lựa chọn an toàn nhất. Khi gặp nhau, người mua có thể kiểm tra sản phẩm và đảm bảo rằng nó đáp ứng mong đợi trước khi trả tiền cho người bán. Điều này giúp tránh được các rủi ro liên quan đến thanh toán trực tuyến.
+3.Thanh toán online có nhiều rủi ro, đặc biệt là khi không có cách thức để xác thực danh tính người mua và người bán. Tôi nghĩ nên khuyến khích giao dịch trực tiếp. Tuy nhiên, nếu thanh toán online là không thể tránh được, thì cần cung cấp các tùy chọn thanh toán an toàn và xác thực danh tính để tối ưu hóa tính an toàn trong quá trình này.
+ 4.Để đảm bảo tính an toàn, chúng ta có thể cung cấp tùy chọn thanh toán trực tuyến qua các dịch vụ thanh toán an toàn đã được kiểm chứng. Các dịch vụ này có thể bao gồm việc xác thực danh tính của người dùng và giữ tiền trong tài khoản trung gian cho đến khi giao dịch hoàn tất. Nhưng cần chú ý rằng việc này có thể đòi hỏi phí hoặc hoa hồng, do đó, nên cân nhắc về chi phí.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +156,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,53 +521,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C90342-5655-49CB-8A11-E5D8522C1964}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="122.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="202.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>